--- a/meta.xlsx
+++ b/meta.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Storage/Moved Users/szg180/Documents/Data/fMRI-M_Diaz/SharedDS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/szg180/Documents/GitHub/LangAge/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460F3BEA-2DD6-F74A-9D41-2F5F601597F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="5780" windowWidth="27640" windowHeight="16940" activeTab="2"/>
+    <workbookView xWindow="2660" yWindow="5780" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="YAs" sheetId="1" r:id="rId1"/>
     <sheet name="OAs" sheetId="2" r:id="rId2"/>
     <sheet name="ROIs" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,343 +53,343 @@
     <t>Brain-Stem</t>
   </si>
   <si>
-    <t>Left_Thalamus</t>
-  </si>
-  <si>
-    <t>Left_Caudate</t>
-  </si>
-  <si>
-    <t>Left_Putamen</t>
-  </si>
-  <si>
-    <t>Left_Pallidum</t>
-  </si>
-  <si>
-    <t>Left_Hippocampus</t>
-  </si>
-  <si>
-    <t>Left_Amygdala</t>
-  </si>
-  <si>
-    <t>Left_Accumbens</t>
-  </si>
-  <si>
-    <t>Right_Thalamus</t>
-  </si>
-  <si>
-    <t>Right_Caudate</t>
-  </si>
-  <si>
-    <t>Right_Putamen</t>
-  </si>
-  <si>
-    <t>Right_Pallidum</t>
-  </si>
-  <si>
-    <t>Right_Hippocampus</t>
-  </si>
-  <si>
-    <t>Right_Amygdala</t>
-  </si>
-  <si>
-    <t>Right_Accumbens</t>
-  </si>
-  <si>
-    <t>Left_Frontal_Pole</t>
-  </si>
-  <si>
-    <t>Left_Insular_Cortex</t>
-  </si>
-  <si>
-    <t>Left_Superior_Frontal_Gyrus</t>
-  </si>
-  <si>
-    <t>Left_Middle_Frontal_Gyrus</t>
-  </si>
-  <si>
-    <t>Left_Inferior_Frontal_Gyrus_pars_triangularis</t>
-  </si>
-  <si>
-    <t>Left_Inferior_Frontal_Gyrus_pars_opercularis</t>
-  </si>
-  <si>
-    <t>Left_Precentral_Gyrus</t>
-  </si>
-  <si>
-    <t>Left_Temporal_Pole</t>
-  </si>
-  <si>
-    <t>Left_Superior_Temporal_Gyrus_anterior_division</t>
-  </si>
-  <si>
-    <t>Left_Superior_Temporal_Gyrus_posterior_division</t>
-  </si>
-  <si>
-    <t>Left_Middle_Temporal_Gyrus_anterior_division</t>
-  </si>
-  <si>
-    <t>Left_Middle_Temporal_Gyrus_posterior_division</t>
-  </si>
-  <si>
-    <t>Left_Middle_Temporal_Gyrus_temporooccipital_part</t>
-  </si>
-  <si>
-    <t>Left_Inferior_Temporal_Gyrus_anterior_division</t>
-  </si>
-  <si>
-    <t>Left_Inferior_Temporal_Gyrus_posterior_division</t>
-  </si>
-  <si>
-    <t>Left_Inferior_Temporal_Gyrus_temporooccipital_part</t>
-  </si>
-  <si>
-    <t>Left_Postcentral_Gyrus</t>
-  </si>
-  <si>
-    <t>Left_Superior_Parietal_Lobule</t>
-  </si>
-  <si>
-    <t>Left_Supramarginal_Gyrus_anterior_division</t>
-  </si>
-  <si>
-    <t>Left_Supramarginal_Gyrus_posterior_division</t>
-  </si>
-  <si>
-    <t>Left_Angular_Gyrus</t>
-  </si>
-  <si>
-    <t>Left_Lateral_Occipital_Cortex_superior_division</t>
-  </si>
-  <si>
-    <t>Left_Lateral_Occipital_Cortex_inferior_division</t>
-  </si>
-  <si>
-    <t>Left_Intracalcarine_Cortex</t>
-  </si>
-  <si>
-    <t>Left_Frontal_Medial_Cortex</t>
-  </si>
-  <si>
-    <t>Left_Juxtapositional_Lobule_Cortex_(formerly_Supplementary_Motor_Cortex)</t>
-  </si>
-  <si>
-    <t>Left_Subcallosal_Cortex</t>
-  </si>
-  <si>
-    <t>Left_Paracingulate_Gyrus</t>
-  </si>
-  <si>
-    <t>Left_Cingulate_Gyrus_anterior_division</t>
-  </si>
-  <si>
-    <t>Left_Cingulate_Gyrus_posterior_division</t>
-  </si>
-  <si>
-    <t>Left_Precuneous_Cortex</t>
-  </si>
-  <si>
-    <t>Left_Cuneal_Cortex</t>
-  </si>
-  <si>
-    <t>Left_Frontal_Orbital_Cortex</t>
-  </si>
-  <si>
-    <t>Left_Parahippocampal_Gyrus_anterior_division</t>
-  </si>
-  <si>
-    <t>Left_Parahippocampal_Gyrus_posterior_division</t>
-  </si>
-  <si>
-    <t>Left_Lingual_Gyrus</t>
-  </si>
-  <si>
-    <t>Left_Temporal_Fusiform_Cortex_anterior_division</t>
-  </si>
-  <si>
-    <t>Left_Temporal_Fusiform_Cortex_posterior_division</t>
-  </si>
-  <si>
-    <t>Left_Temporal_Occipital_Fusiform_Cortex</t>
-  </si>
-  <si>
-    <t>Left_Occipital_Fusiform_Gyrus</t>
-  </si>
-  <si>
-    <t>Left_Frontal_Operculum_Cortex</t>
-  </si>
-  <si>
-    <t>Left_Central_Opercular_Cortex</t>
-  </si>
-  <si>
-    <t>Left_Parietal_Operculum_Cortex</t>
-  </si>
-  <si>
-    <t>Left_Planum_Polare</t>
-  </si>
-  <si>
-    <t>Left_Heschls_Gyrus_(includes_H1_and_H2)</t>
-  </si>
-  <si>
-    <t>Left_Planum_Temporale</t>
-  </si>
-  <si>
-    <t>Left_Supracalcarine_Cortex</t>
-  </si>
-  <si>
-    <t>Left_Occipital_Pole</t>
-  </si>
-  <si>
-    <t>Right_Frontal_Pole</t>
-  </si>
-  <si>
-    <t>Right_Insular_Cortex</t>
-  </si>
-  <si>
-    <t>Right_Superior_Frontal_Gyrus</t>
-  </si>
-  <si>
-    <t>Right_Middle_Frontal_Gyrus</t>
-  </si>
-  <si>
-    <t>Right_Inferior_Frontal_Gyrus_pars_triangularis</t>
-  </si>
-  <si>
-    <t>Right_Inferior_Frontal_Gyrus_pars_opercularis</t>
-  </si>
-  <si>
-    <t>Right_Precentral_Gyrus</t>
-  </si>
-  <si>
-    <t>Right_Temporal_Pole</t>
-  </si>
-  <si>
-    <t>Right_Superior_Temporal_Gyrus_anterior_division</t>
-  </si>
-  <si>
-    <t>Right_Superior_Temporal_Gyrus_posterior_division</t>
-  </si>
-  <si>
-    <t>Right_Middle_Temporal_Gyrus_anterior_division</t>
-  </si>
-  <si>
-    <t>Right_Middle_Temporal_Gyrus_posterior_division</t>
-  </si>
-  <si>
-    <t>Right_Middle_Temporal_Gyrus_temporooccipital_part</t>
-  </si>
-  <si>
-    <t>Right_Inferior_Temporal_Gyrus_anterior_division</t>
-  </si>
-  <si>
-    <t>Right_Inferior_Temporal_Gyrus_posterior_division</t>
-  </si>
-  <si>
-    <t>Right_Inferior_Temporal_Gyrus_temporooccipital_part</t>
-  </si>
-  <si>
-    <t>Right_Postcentral_Gyrus</t>
-  </si>
-  <si>
-    <t>Right_Superior_Parietal_Lobule</t>
-  </si>
-  <si>
-    <t>Right_Supramarginal_Gyrus_anterior_division</t>
-  </si>
-  <si>
-    <t>Right_Supramarginal_Gyrus_posterior_division</t>
-  </si>
-  <si>
-    <t>Right_Angular_Gyrus</t>
-  </si>
-  <si>
-    <t>Right_Lateral_Occipital_Cortex_superior_division</t>
-  </si>
-  <si>
-    <t>Right_Lateral_Occipital_Cortex_inferior_division</t>
-  </si>
-  <si>
-    <t>Right_Intracalcarine_Cortex</t>
-  </si>
-  <si>
-    <t>Right_Frontal_Medial_Cortex</t>
-  </si>
-  <si>
-    <t>Right_Juxtapositional_Lobule_Cortex_(formerly_Supplementary_Motor_Cortex)</t>
-  </si>
-  <si>
-    <t>Right_Subcallosal_Cortex</t>
-  </si>
-  <si>
-    <t>Right_Paracingulate_Gyrus</t>
-  </si>
-  <si>
-    <t>Right_Cingulate_Gyrus_anterior_division</t>
-  </si>
-  <si>
-    <t>Right_Cingulate_Gyrus_posterior_division</t>
-  </si>
-  <si>
-    <t>Right_Precuneous_Cortex</t>
-  </si>
-  <si>
-    <t>Right_Cuneal_Cortex</t>
-  </si>
-  <si>
-    <t>Right_Frontal_Orbital_Cortex</t>
-  </si>
-  <si>
-    <t>Right_Parahippocampal_Gyrus_anterior_division</t>
-  </si>
-  <si>
-    <t>Right_Parahippocampal_Gyrus_posterior_division</t>
-  </si>
-  <si>
-    <t>Right_Lingual_Gyrus</t>
-  </si>
-  <si>
-    <t>Right_Temporal_Fusiform_Cortex_anterior_division</t>
-  </si>
-  <si>
-    <t>Right_Temporal_Fusiform_Cortex_posterior_division</t>
-  </si>
-  <si>
-    <t>Right_Temporal_Occipital_Fusiform_Cortex</t>
-  </si>
-  <si>
-    <t>Right_Occipital_Fusiform_Gyrus</t>
-  </si>
-  <si>
-    <t>Right_Frontal_Operculum_Cortex</t>
-  </si>
-  <si>
-    <t>Right_Central_Opercular_Cortex</t>
-  </si>
-  <si>
-    <t>Right_Parietal_Operculum_Cortex</t>
-  </si>
-  <si>
-    <t>Right_Planum_Polare</t>
-  </si>
-  <si>
-    <t>Right_Heschls_Gyrus_(includes_H1_and_H2)</t>
-  </si>
-  <si>
-    <t>Right_Planum_Temporale</t>
-  </si>
-  <si>
-    <t>Right_Supracalcarine_Cortex</t>
-  </si>
-  <si>
-    <t>Right_Occipital_Pole</t>
-  </si>
-  <si>
     <t>Column#</t>
+  </si>
+  <si>
+    <t>Left Frontal Pole</t>
+  </si>
+  <si>
+    <t>Left Insular Cortex</t>
+  </si>
+  <si>
+    <t>Left Superior Frontal Gyrus</t>
+  </si>
+  <si>
+    <t>Left Middle Frontal Gyrus</t>
+  </si>
+  <si>
+    <t>Left Inferior Frontal Gyrus pars triangularis</t>
+  </si>
+  <si>
+    <t>Left Inferior Frontal Gyrus pars opercularis</t>
+  </si>
+  <si>
+    <t>Left Precentral Gyrus</t>
+  </si>
+  <si>
+    <t>Left Temporal Pole</t>
+  </si>
+  <si>
+    <t>Left Superior Temporal Gyrus anterior division</t>
+  </si>
+  <si>
+    <t>Left Superior Temporal Gyrus posterior division</t>
+  </si>
+  <si>
+    <t>Left Middle Temporal Gyrus anterior division</t>
+  </si>
+  <si>
+    <t>Left Middle Temporal Gyrus posterior division</t>
+  </si>
+  <si>
+    <t>Left Middle Temporal Gyrus temporooccipital part</t>
+  </si>
+  <si>
+    <t>Left Inferior Temporal Gyrus anterior division</t>
+  </si>
+  <si>
+    <t>Left Inferior Temporal Gyrus posterior division</t>
+  </si>
+  <si>
+    <t>Left Inferior Temporal Gyrus temporooccipital part</t>
+  </si>
+  <si>
+    <t>Left Postcentral Gyrus</t>
+  </si>
+  <si>
+    <t>Left Superior Parietal Lobule</t>
+  </si>
+  <si>
+    <t>Left Supramarginal Gyrus anterior division</t>
+  </si>
+  <si>
+    <t>Left Supramarginal Gyrus posterior division</t>
+  </si>
+  <si>
+    <t>Left Angular Gyrus</t>
+  </si>
+  <si>
+    <t>Left Lateral Occipital Cortex superior division</t>
+  </si>
+  <si>
+    <t>Left Lateral Occipital Cortex inferior division</t>
+  </si>
+  <si>
+    <t>Left Intracalcarine Cortex</t>
+  </si>
+  <si>
+    <t>Left Frontal Medial Cortex</t>
+  </si>
+  <si>
+    <t>Left Juxtapositional Lobule Cortex (formerly Supplementary Motor Cortex)</t>
+  </si>
+  <si>
+    <t>Left Subcallosal Cortex</t>
+  </si>
+  <si>
+    <t>Left Paracingulate Gyrus</t>
+  </si>
+  <si>
+    <t>Left Cingulate Gyrus anterior division</t>
+  </si>
+  <si>
+    <t>Left Cingulate Gyrus posterior division</t>
+  </si>
+  <si>
+    <t>Left Precuneous Cortex</t>
+  </si>
+  <si>
+    <t>Left Cuneal Cortex</t>
+  </si>
+  <si>
+    <t>Left Frontal Orbital Cortex</t>
+  </si>
+  <si>
+    <t>Left Parahippocampal Gyrus anterior division</t>
+  </si>
+  <si>
+    <t>Left Parahippocampal Gyrus posterior division</t>
+  </si>
+  <si>
+    <t>Left Lingual Gyrus</t>
+  </si>
+  <si>
+    <t>Left Temporal Fusiform Cortex anterior division</t>
+  </si>
+  <si>
+    <t>Left Temporal Fusiform Cortex posterior division</t>
+  </si>
+  <si>
+    <t>Left Temporal Occipital Fusiform Cortex</t>
+  </si>
+  <si>
+    <t>Left Occipital Fusiform Gyrus</t>
+  </si>
+  <si>
+    <t>Left Frontal Operculum Cortex</t>
+  </si>
+  <si>
+    <t>Left Central Opercular Cortex</t>
+  </si>
+  <si>
+    <t>Left Parietal Operculum Cortex</t>
+  </si>
+  <si>
+    <t>Left Planum Polare</t>
+  </si>
+  <si>
+    <t>Left Heschls Gyrus (includes H1 and H2)</t>
+  </si>
+  <si>
+    <t>Left Planum Temporale</t>
+  </si>
+  <si>
+    <t>Left Supracalcarine Cortex</t>
+  </si>
+  <si>
+    <t>Left Occipital Pole</t>
+  </si>
+  <si>
+    <t>Right Frontal Pole</t>
+  </si>
+  <si>
+    <t>Right Insular Cortex</t>
+  </si>
+  <si>
+    <t>Right Superior Frontal Gyrus</t>
+  </si>
+  <si>
+    <t>Right Middle Frontal Gyrus</t>
+  </si>
+  <si>
+    <t>Right Inferior Frontal Gyrus pars triangularis</t>
+  </si>
+  <si>
+    <t>Right Inferior Frontal Gyrus pars opercularis</t>
+  </si>
+  <si>
+    <t>Right Precentral Gyrus</t>
+  </si>
+  <si>
+    <t>Right Temporal Pole</t>
+  </si>
+  <si>
+    <t>Right Superior Temporal Gyrus anterior division</t>
+  </si>
+  <si>
+    <t>Right Superior Temporal Gyrus posterior division</t>
+  </si>
+  <si>
+    <t>Right Middle Temporal Gyrus anterior division</t>
+  </si>
+  <si>
+    <t>Right Middle Temporal Gyrus posterior division</t>
+  </si>
+  <si>
+    <t>Right Middle Temporal Gyrus temporooccipital part</t>
+  </si>
+  <si>
+    <t>Right Inferior Temporal Gyrus anterior division</t>
+  </si>
+  <si>
+    <t>Right Inferior Temporal Gyrus posterior division</t>
+  </si>
+  <si>
+    <t>Right Inferior Temporal Gyrus temporooccipital part</t>
+  </si>
+  <si>
+    <t>Right Postcentral Gyrus</t>
+  </si>
+  <si>
+    <t>Right Superior Parietal Lobule</t>
+  </si>
+  <si>
+    <t>Right Supramarginal Gyrus anterior division</t>
+  </si>
+  <si>
+    <t>Right Supramarginal Gyrus posterior division</t>
+  </si>
+  <si>
+    <t>Right Angular Gyrus</t>
+  </si>
+  <si>
+    <t>Right Lateral Occipital Cortex superior division</t>
+  </si>
+  <si>
+    <t>Right Lateral Occipital Cortex inferior division</t>
+  </si>
+  <si>
+    <t>Right Intracalcarine Cortex</t>
+  </si>
+  <si>
+    <t>Right Frontal Medial Cortex</t>
+  </si>
+  <si>
+    <t>Right Juxtapositional Lobule Cortex (formerly Supplementary Motor Cortex)</t>
+  </si>
+  <si>
+    <t>Right Subcallosal Cortex</t>
+  </si>
+  <si>
+    <t>Right Paracingulate Gyrus</t>
+  </si>
+  <si>
+    <t>Right Cingulate Gyrus anterior division</t>
+  </si>
+  <si>
+    <t>Right Cingulate Gyrus posterior division</t>
+  </si>
+  <si>
+    <t>Right Precuneous Cortex</t>
+  </si>
+  <si>
+    <t>Right Cuneal Cortex</t>
+  </si>
+  <si>
+    <t>Right Frontal Orbital Cortex</t>
+  </si>
+  <si>
+    <t>Right Parahippocampal Gyrus anterior division</t>
+  </si>
+  <si>
+    <t>Right Parahippocampal Gyrus posterior division</t>
+  </si>
+  <si>
+    <t>Right Lingual Gyrus</t>
+  </si>
+  <si>
+    <t>Right Temporal Fusiform Cortex anterior division</t>
+  </si>
+  <si>
+    <t>Right Temporal Fusiform Cortex posterior division</t>
+  </si>
+  <si>
+    <t>Right Temporal Occipital Fusiform Cortex</t>
+  </si>
+  <si>
+    <t>Right Occipital Fusiform Gyrus</t>
+  </si>
+  <si>
+    <t>Right Frontal Operculum Cortex</t>
+  </si>
+  <si>
+    <t>Right Central Opercular Cortex</t>
+  </si>
+  <si>
+    <t>Right Parietal Operculum Cortex</t>
+  </si>
+  <si>
+    <t>Right Planum Polare</t>
+  </si>
+  <si>
+    <t>Right Heschls Gyrus (includes H1 and H2)</t>
+  </si>
+  <si>
+    <t>Right Planum Temporale</t>
+  </si>
+  <si>
+    <t>Right Supracalcarine Cortex</t>
+  </si>
+  <si>
+    <t>Right Occipital Pole</t>
+  </si>
+  <si>
+    <t>Left Thalamus</t>
+  </si>
+  <si>
+    <t>Left Caudate</t>
+  </si>
+  <si>
+    <t>Left Putamen</t>
+  </si>
+  <si>
+    <t>Left Pallidum</t>
+  </si>
+  <si>
+    <t>Left Hippocampus</t>
+  </si>
+  <si>
+    <t>Left Amygdala</t>
+  </si>
+  <si>
+    <t>Left Accumbens</t>
+  </si>
+  <si>
+    <t>Right Thalamus</t>
+  </si>
+  <si>
+    <t>Right Caudate</t>
+  </si>
+  <si>
+    <t>Right Putamen</t>
+  </si>
+  <si>
+    <t>Right Pallidum</t>
+  </si>
+  <si>
+    <t>Right Hippocampus</t>
+  </si>
+  <si>
+    <t>Right Amygdala</t>
+  </si>
+  <si>
+    <t>Right Accumbens</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -742,7 +743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1044,7 +1045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1345,10 +1346,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -1359,7 +1362,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -1370,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1378,7 +1381,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1386,7 +1389,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1394,7 +1397,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1402,7 +1405,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1410,7 +1413,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1418,7 +1421,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1426,7 +1429,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1434,7 +1437,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1442,7 +1445,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1450,7 +1453,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1458,7 +1461,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1466,7 +1469,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1474,7 +1477,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1482,7 +1485,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1490,7 +1493,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1498,7 +1501,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1506,7 +1509,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1514,7 +1517,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1522,7 +1525,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1530,7 +1533,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1538,7 +1541,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1546,7 +1549,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1554,7 +1557,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1562,7 +1565,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1570,7 +1573,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1578,7 +1581,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1586,7 +1589,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1594,7 +1597,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1602,7 +1605,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1610,7 +1613,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1618,7 +1621,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1626,7 +1629,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1634,7 +1637,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1642,7 +1645,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1650,7 +1653,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1658,7 +1661,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1666,7 +1669,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1674,7 +1677,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1682,7 +1685,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1690,7 +1693,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1698,7 +1701,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1706,7 +1709,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1714,7 +1717,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1722,7 +1725,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1730,7 +1733,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1738,7 +1741,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1746,7 +1749,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1754,7 +1757,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1762,7 +1765,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1770,7 +1773,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1778,7 +1781,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1786,7 +1789,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1794,7 +1797,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1802,7 +1805,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1810,7 +1813,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1818,7 +1821,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1826,7 +1829,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1834,7 +1837,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1842,7 +1845,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1850,7 +1853,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1858,7 +1861,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1866,7 +1869,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1874,7 +1877,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1882,7 +1885,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1890,7 +1893,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1898,7 +1901,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1906,7 +1909,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1914,7 +1917,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1922,7 +1925,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1930,7 +1933,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1938,7 +1941,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1946,7 +1949,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1954,7 +1957,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1962,7 +1965,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1970,7 +1973,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1978,7 +1981,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1986,7 +1989,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1994,7 +1997,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2002,7 +2005,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2010,7 +2013,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2018,7 +2021,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2026,7 +2029,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2034,7 +2037,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2042,7 +2045,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2050,7 +2053,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2058,7 +2061,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2066,7 +2069,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2074,7 +2077,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2082,7 +2085,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2090,7 +2093,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2098,7 +2101,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2106,7 +2109,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2114,7 +2117,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2122,7 +2125,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2130,7 +2133,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2138,7 +2141,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2146,7 +2149,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2154,7 +2157,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2162,7 +2165,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2170,7 +2173,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2178,7 +2181,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2186,7 +2189,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2194,7 +2197,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2202,7 +2205,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2210,7 +2213,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2218,7 +2221,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2226,7 +2229,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2234,7 +2237,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2242,7 +2245,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2250,7 +2253,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
